--- a/biology/Botanique/Penicillium/Penicillium.xlsx
+++ b/biology/Botanique/Penicillium/Penicillium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Penicillium est un genre de champignons imparfaits (deutéromycètes) de la famille des Trichocomaceae, à répartition cosmopolite, qui comprend plus de 300 espèces. 
 Certaines espèces de ce genre sont utilisés pour la fabrication de fromages ou de médicaments. D'autres espèces sont toxiques.
@@ -512,7 +524,9 @@
           <t>Identification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les formes parfaites (téléomorphes) de quelques espèces de Penicillium sont connues. Ces espèces appartiennent au phylum des Ascomycètes (ordre des Eurotiales, famille des Trichocomacées). Pour plusieurs espèces de Penicillium, le stade parfait demeure inconnu. 
 Les Penicillium sont des champignons filamenteux. Le conidiophore ramifié possède une forme ressemblant à celle d’un pinceau. Les conidies sont disposées en longues chaînes. Le thalle est vert ou blanc. Ce genre comprend entre 100 et 250 espèces.
@@ -545,7 +559,9 @@
           <t>Utilisation industrielle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Diverses espèces sont cultivées au niveau industriel pour la fabrication de fromages (Penicillium roqueforti, Penicillium camemberti), de charcuteries (Penicillium salamii et P. nalgiovense), pour la production de métabolites : les antibiotiques de type pénicillines (Penicillium notatum, Penicillium chrysogenum), l’acide gluconique (par Penicillium purpurogenum), la griséofulvine (Penicillium griseofulvum). Certaines espèces peuvent en outre produire de dangereuses mycotoxines.
 </t>
@@ -576,7 +592,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Penicillium chrysogenum est une espèce très commune dans les sols, sur les matières organiques et les denrées alimentaires. Cette espèce peut provoquer la détérioration des textiles, papiers et des produits alimentaires. Cette espèce est aussi utilisée pour la fabrication industrielle de la pénicilline.
 Penicillium notatum synthétise la pénicilline, premier antibiotique découvert par le britannique Alexander Fleming le 3 septembre 1928.
